--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il15-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il15-Il2ra.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H2">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I2">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J2">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.258104</v>
+        <v>0.2196916666666667</v>
       </c>
       <c r="N2">
-        <v>0.774312</v>
+        <v>0.6590750000000001</v>
       </c>
       <c r="O2">
-        <v>0.1872068365339492</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="P2">
-        <v>0.1872068365339493</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="Q2">
-        <v>2.652634350109333</v>
+        <v>1.461837943202778</v>
       </c>
       <c r="R2">
-        <v>23.873709150984</v>
+        <v>13.156541488825</v>
       </c>
       <c r="S2">
-        <v>0.06685531791183789</v>
+        <v>0.03374672534321228</v>
       </c>
       <c r="T2">
-        <v>0.06685531791183789</v>
+        <v>0.03374672534321227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H3">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I3">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J3">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.173052</v>
       </c>
       <c r="O3">
-        <v>0.0418391003573146</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="P3">
-        <v>0.04183910035731461</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="Q3">
-        <v>0.5928407147960001</v>
+        <v>0.383831854868</v>
       </c>
       <c r="R3">
-        <v>5.335566433164001</v>
+        <v>3.454486693812</v>
       </c>
       <c r="S3">
-        <v>0.01494158230181034</v>
+        <v>0.008860809944382006</v>
       </c>
       <c r="T3">
-        <v>0.01494158230181034</v>
+        <v>0.008860809944382006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H4">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I4">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J4">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7420453333333333</v>
+        <v>1.200477666666667</v>
       </c>
       <c r="N4">
-        <v>2.226136</v>
+        <v>3.601433</v>
       </c>
       <c r="O4">
-        <v>0.5382169955448702</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="P4">
-        <v>0.5382169955448703</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="Q4">
-        <v>7.62628607281689</v>
+        <v>7.988030814858112</v>
       </c>
       <c r="R4">
-        <v>68.63657465535201</v>
+        <v>71.892277333723</v>
       </c>
       <c r="S4">
-        <v>0.1922080892392048</v>
+        <v>0.1844047646974639</v>
       </c>
       <c r="T4">
-        <v>0.1922080892392048</v>
+        <v>0.1844047646974639</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.27738566666667</v>
+        <v>6.654043666666666</v>
       </c>
       <c r="H5">
-        <v>30.832157</v>
+        <v>19.962131</v>
       </c>
       <c r="I5">
-        <v>0.3571200664977529</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="J5">
-        <v>0.3571200664977528</v>
+        <v>0.3091924566209486</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.320877</v>
+        <v>0.534994</v>
       </c>
       <c r="N5">
-        <v>0.962631</v>
+        <v>1.604982</v>
       </c>
       <c r="O5">
-        <v>0.2327370675638658</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="P5">
-        <v>0.2327370675638659</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="Q5">
-        <v>3.297776680563</v>
+        <v>3.559873437404666</v>
       </c>
       <c r="R5">
-        <v>29.679990125067</v>
+        <v>32.038860936642</v>
       </c>
       <c r="S5">
-        <v>0.08311507704489976</v>
+        <v>0.08218015663589047</v>
       </c>
       <c r="T5">
-        <v>0.08311507704489976</v>
+        <v>0.08218015663589047</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>5.961398</v>
       </c>
       <c r="I6">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J6">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.258104</v>
+        <v>0.2196916666666667</v>
       </c>
       <c r="N6">
-        <v>0.774312</v>
+        <v>0.6590750000000001</v>
       </c>
       <c r="O6">
-        <v>0.1872068365339492</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="P6">
-        <v>0.1872068365339493</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="Q6">
-        <v>0.5128868897973333</v>
+        <v>0.4365564874277779</v>
       </c>
       <c r="R6">
-        <v>4.615982008176</v>
+        <v>3.929008386850001</v>
       </c>
       <c r="S6">
-        <v>0.01292647668111558</v>
+        <v>0.01007796517153279</v>
       </c>
       <c r="T6">
-        <v>0.01292647668111558</v>
+        <v>0.01007796517153279</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>5.961398</v>
       </c>
       <c r="I7">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J7">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.173052</v>
       </c>
       <c r="O7">
-        <v>0.0418391003573146</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="P7">
-        <v>0.04183910035731461</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="Q7">
         <v>0.114625760744</v>
@@ -883,10 +883,10 @@
         <v>1.031631846696</v>
       </c>
       <c r="S7">
-        <v>0.002888955153246254</v>
+        <v>0.002646151088820076</v>
       </c>
       <c r="T7">
-        <v>0.002888955153246255</v>
+        <v>0.002646151088820076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>5.961398</v>
       </c>
       <c r="I8">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J8">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7420453333333333</v>
+        <v>1.200477666666667</v>
       </c>
       <c r="N8">
-        <v>2.226136</v>
+        <v>3.601433</v>
       </c>
       <c r="O8">
-        <v>0.5382169955448702</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="P8">
-        <v>0.5382169955448703</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="Q8">
-        <v>1.474542522014222</v>
+        <v>2.385508387037111</v>
       </c>
       <c r="R8">
-        <v>13.270882698128</v>
+        <v>21.469575483334</v>
       </c>
       <c r="S8">
-        <v>0.03716343682261403</v>
+        <v>0.0550697816509636</v>
       </c>
       <c r="T8">
-        <v>0.03716343682261403</v>
+        <v>0.0550697816509636</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>5.961398</v>
       </c>
       <c r="I9">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="J9">
-        <v>0.0690491700006448</v>
+        <v>0.09233579784218476</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.320877</v>
+        <v>0.534994</v>
       </c>
       <c r="N9">
-        <v>0.962631</v>
+        <v>1.604982</v>
       </c>
       <c r="O9">
-        <v>0.2327370675638658</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="P9">
-        <v>0.2327370675638659</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="Q9">
-        <v>0.637625168682</v>
+        <v>1.063104053870667</v>
       </c>
       <c r="R9">
-        <v>5.738626518138</v>
+        <v>9.567936484836</v>
       </c>
       <c r="S9">
-        <v>0.01607030134366893</v>
+        <v>0.02454189993086831</v>
       </c>
       <c r="T9">
-        <v>0.01607030134366893</v>
+        <v>0.02454189993086831</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H10">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I10">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J10">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.258104</v>
+        <v>0.2196916666666667</v>
       </c>
       <c r="N10">
-        <v>0.774312</v>
+        <v>0.6590750000000001</v>
       </c>
       <c r="O10">
-        <v>0.1872068365339492</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="P10">
-        <v>0.1872068365339493</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="Q10">
-        <v>0.2075304999973333</v>
+        <v>0.2107527789027778</v>
       </c>
       <c r="R10">
-        <v>1.867774499976</v>
+        <v>1.896775010125</v>
       </c>
       <c r="S10">
-        <v>0.005230467423130718</v>
+        <v>0.004865256219419541</v>
       </c>
       <c r="T10">
-        <v>0.005230467423130719</v>
+        <v>0.004865256219419541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H11">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I11">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J11">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.173052</v>
       </c>
       <c r="O11">
-        <v>0.0418391003573146</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="P11">
-        <v>0.04183910035731461</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="Q11">
-        <v>0.046381262444</v>
+        <v>0.05533693418000001</v>
       </c>
       <c r="R11">
-        <v>0.4174313619960001</v>
+        <v>0.49803240762</v>
       </c>
       <c r="S11">
-        <v>0.001168963994497847</v>
+        <v>0.001277460561063597</v>
       </c>
       <c r="T11">
-        <v>0.001168963994497847</v>
+        <v>0.001277460561063597</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H12">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I12">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J12">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7420453333333333</v>
+        <v>1.200477666666667</v>
       </c>
       <c r="N12">
-        <v>2.226136</v>
+        <v>3.601433</v>
       </c>
       <c r="O12">
-        <v>0.5382169955448702</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="P12">
-        <v>0.5382169955448703</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="Q12">
-        <v>0.5966472392808889</v>
+        <v>1.151632231206111</v>
       </c>
       <c r="R12">
-        <v>5.369825153528</v>
+        <v>10.364690080855</v>
       </c>
       <c r="S12">
-        <v>0.01503751953664482</v>
+        <v>0.02658558480001938</v>
       </c>
       <c r="T12">
-        <v>0.01503751953664482</v>
+        <v>0.02658558480001938</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8040576666666667</v>
+        <v>0.9593116666666667</v>
       </c>
       <c r="H13">
-        <v>2.412173</v>
+        <v>2.877935</v>
       </c>
       <c r="I13">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381535</v>
       </c>
       <c r="J13">
-        <v>0.02793951075703474</v>
+        <v>0.04457619242381536</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.320877</v>
+        <v>0.534994</v>
       </c>
       <c r="N13">
-        <v>0.962631</v>
+        <v>1.604982</v>
       </c>
       <c r="O13">
-        <v>0.2327370675638658</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="P13">
-        <v>0.2327370675638659</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="Q13">
-        <v>0.258003611907</v>
+        <v>0.5132259857966667</v>
       </c>
       <c r="R13">
-        <v>2.322032507163</v>
+        <v>4.619033872169999</v>
       </c>
       <c r="S13">
-        <v>0.00650255980276135</v>
+        <v>0.01184789084331284</v>
       </c>
       <c r="T13">
-        <v>0.006502559802761351</v>
+        <v>0.01184789084331284</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H14">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I14">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J14">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.258104</v>
+        <v>0.2196916666666667</v>
       </c>
       <c r="N14">
-        <v>0.774312</v>
+        <v>0.6590750000000001</v>
       </c>
       <c r="O14">
-        <v>0.1872068365339492</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="P14">
-        <v>0.1872068365339493</v>
+        <v>0.1091447240078814</v>
       </c>
       <c r="Q14">
-        <v>4.054798439794666</v>
+        <v>2.61877519575</v>
       </c>
       <c r="R14">
-        <v>36.493185958152</v>
+        <v>23.56897676175</v>
       </c>
       <c r="S14">
-        <v>0.102194574517865</v>
+        <v>0.06045477727371679</v>
       </c>
       <c r="T14">
-        <v>0.102194574517865</v>
+        <v>0.0604547772737168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H15">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I15">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J15">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.173052</v>
       </c>
       <c r="O15">
-        <v>0.0418391003573146</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="P15">
-        <v>0.04183910035731461</v>
+        <v>0.02865791113152811</v>
       </c>
       <c r="Q15">
-        <v>0.9062121981880001</v>
+        <v>0.6876065473199999</v>
       </c>
       <c r="R15">
-        <v>8.155909783692001</v>
+        <v>6.18845892588</v>
       </c>
       <c r="S15">
-        <v>0.02283959890776015</v>
+        <v>0.01587348953726243</v>
       </c>
       <c r="T15">
-        <v>0.02283959890776015</v>
+        <v>0.01587348953726244</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H16">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I16">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J16">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7420453333333333</v>
+        <v>1.200477666666667</v>
       </c>
       <c r="N16">
-        <v>2.226136</v>
+        <v>3.601433</v>
       </c>
       <c r="O16">
-        <v>0.5382169955448702</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="P16">
-        <v>0.5382169955448703</v>
+        <v>0.5964077090132023</v>
       </c>
       <c r="Q16">
-        <v>11.65748791129511</v>
+        <v>14.30996989653</v>
       </c>
       <c r="R16">
-        <v>104.917391201656</v>
+        <v>128.78972906877</v>
       </c>
       <c r="S16">
-        <v>0.2938079499464065</v>
+        <v>0.3303475778647554</v>
       </c>
       <c r="T16">
-        <v>0.2938079499464066</v>
+        <v>0.3303475778647555</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.70994033333333</v>
+        <v>11.92023</v>
       </c>
       <c r="H17">
-        <v>47.129821</v>
+        <v>35.76069</v>
       </c>
       <c r="I17">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130513</v>
       </c>
       <c r="J17">
-        <v>0.5458912527445675</v>
+        <v>0.5538955531130514</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.320877</v>
+        <v>0.534994</v>
       </c>
       <c r="N17">
-        <v>0.962631</v>
+        <v>1.604982</v>
       </c>
       <c r="O17">
-        <v>0.2327370675638658</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="P17">
-        <v>0.2327370675638659</v>
+        <v>0.2657896558473883</v>
       </c>
       <c r="Q17">
-        <v>5.040958524339</v>
+        <v>6.377251528619999</v>
       </c>
       <c r="R17">
-        <v>45.368626719051</v>
+        <v>57.39526375757999</v>
       </c>
       <c r="S17">
-        <v>0.1270491293725358</v>
+        <v>0.1472197084373167</v>
       </c>
       <c r="T17">
-        <v>0.1270491293725358</v>
+        <v>0.1472197084373167</v>
       </c>
     </row>
   </sheetData>
